--- a/raw-data/winter-2019-final.orig.xlsx
+++ b/raw-data/winter-2019-final.orig.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Team Drives\MACO Scheduling\Winter 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpratt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="MACO" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="253">
   <si>
     <t>Schedule of Classes - Winter 2019</t>
   </si>
@@ -795,6 +795,12 @@
   </si>
   <si>
     <t>Hudson</t>
+  </si>
+  <si>
+    <t>Sajida </t>
+  </si>
+  <si>
+    <t>Faiyaz</t>
   </si>
 </sst>
 </file>
@@ -804,7 +810,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,6 +844,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="MS Reference Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1003,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1143,6 +1155,24 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1185,24 +1215,7 @@
     <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1485,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
-      <selection activeCell="B194" sqref="A194:XFD197"/>
+    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,31 +1523,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="52"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="58"/>
     </row>
     <row r="2" spans="1:23" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4719,11 +4732,11 @@
       <c r="S57" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T57" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="U57" s="18" t="s">
-        <v>75</v>
+      <c r="T57" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="U57" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="V57" s="18" t="s">
         <v>32</v>
@@ -4772,11 +4785,11 @@
       <c r="S58" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T58" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="U58" s="18" t="s">
-        <v>75</v>
+      <c r="T58" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="U58" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="V58" s="18" t="s">
         <v>32</v>
@@ -4825,11 +4838,11 @@
       <c r="S59" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T59" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="U59" s="18" t="s">
-        <v>75</v>
+      <c r="T59" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="U59" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="V59" s="18" t="s">
         <v>32</v>
@@ -4882,11 +4895,11 @@
       <c r="S60" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T60" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="U60" s="18" t="s">
-        <v>75</v>
+      <c r="T60" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="U60" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="V60" s="18" t="s">
         <v>32</v>
@@ -4939,11 +4952,11 @@
       <c r="S61" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T61" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="U61" s="18" t="s">
-        <v>75</v>
+      <c r="T61" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="U61" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="V61" s="18" t="s">
         <v>32</v>
@@ -11880,7 +11893,7 @@
         <v>184</v>
       </c>
       <c r="R183" s="25" t="s">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="S183" s="25" t="s">
         <v>186</v>
@@ -12241,19 +12254,19 @@
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B190" s="55" t="s">
+      <c r="B190" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="C190" s="58" t="s">
+      <c r="C190" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="D190" s="60">
-        <v>1</v>
-      </c>
-      <c r="E190" s="62">
-        <v>1</v>
-      </c>
-      <c r="F190" s="49">
+      <c r="D190" s="66">
+        <v>1</v>
+      </c>
+      <c r="E190" s="68">
+        <v>1</v>
+      </c>
+      <c r="F190" s="55">
         <v>1</v>
       </c>
       <c r="G190" s="9">
@@ -12303,12 +12316,12 @@
       </c>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A191" s="53"/>
-      <c r="B191" s="56"/>
-      <c r="C191" s="59"/>
-      <c r="D191" s="61"/>
-      <c r="E191" s="62"/>
-      <c r="F191" s="49"/>
+      <c r="A191" s="59"/>
+      <c r="B191" s="62"/>
+      <c r="C191" s="65"/>
+      <c r="D191" s="67"/>
+      <c r="E191" s="68"/>
+      <c r="F191" s="55"/>
       <c r="G191" s="9">
         <v>14</v>
       </c>
@@ -12356,10 +12369,10 @@
       </c>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A192" s="54"/>
-      <c r="B192" s="56"/>
-      <c r="C192" s="59"/>
-      <c r="D192" s="61"/>
+      <c r="A192" s="60"/>
+      <c r="B192" s="62"/>
+      <c r="C192" s="65"/>
+      <c r="D192" s="67"/>
       <c r="E192" s="26">
         <v>401</v>
       </c>
@@ -12413,9 +12426,9 @@
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B193" s="57"/>
-      <c r="C193" s="59"/>
-      <c r="D193" s="61"/>
+      <c r="B193" s="63"/>
+      <c r="C193" s="65"/>
+      <c r="D193" s="67"/>
       <c r="E193" s="26">
         <v>501</v>
       </c>
@@ -13260,19 +13273,19 @@
       </c>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B208" s="63" t="s">
+      <c r="B208" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="C208" s="65" t="s">
+      <c r="C208" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="D208" s="65">
+      <c r="D208" s="51">
         <v>6</v>
       </c>
-      <c r="E208" s="67">
+      <c r="E208" s="53">
         <v>6</v>
       </c>
-      <c r="F208" s="65">
+      <c r="F208" s="51">
         <v>1</v>
       </c>
       <c r="G208" s="6">
@@ -13322,11 +13335,11 @@
       </c>
     </row>
     <row r="209" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B209" s="64"/>
-      <c r="C209" s="66"/>
-      <c r="D209" s="66"/>
-      <c r="E209" s="68"/>
-      <c r="F209" s="66"/>
+      <c r="B209" s="50"/>
+      <c r="C209" s="52"/>
+      <c r="D209" s="52"/>
+      <c r="E209" s="54"/>
+      <c r="F209" s="52"/>
       <c r="G209" s="40">
         <v>40</v>
       </c>
@@ -13374,19 +13387,19 @@
       </c>
     </row>
     <row r="210" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B210" s="63" t="s">
+      <c r="B210" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="C210" s="65" t="s">
+      <c r="C210" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="D210" s="65">
+      <c r="D210" s="51">
         <v>20</v>
       </c>
-      <c r="E210" s="67">
+      <c r="E210" s="53">
         <v>20</v>
       </c>
-      <c r="F210" s="65">
+      <c r="F210" s="51">
         <v>1</v>
       </c>
       <c r="G210" s="6">
@@ -13436,11 +13449,11 @@
       </c>
     </row>
     <row r="211" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B211" s="64"/>
-      <c r="C211" s="66"/>
-      <c r="D211" s="66"/>
-      <c r="E211" s="68"/>
-      <c r="F211" s="66"/>
+      <c r="B211" s="50"/>
+      <c r="C211" s="52"/>
+      <c r="D211" s="52"/>
+      <c r="E211" s="54"/>
+      <c r="F211" s="52"/>
       <c r="G211" s="40">
         <v>40</v>
       </c>
@@ -13488,19 +13501,19 @@
       </c>
     </row>
     <row r="212" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B212" s="63" t="s">
+      <c r="B212" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="C212" s="65" t="s">
+      <c r="C212" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="D212" s="65">
-        <v>1</v>
-      </c>
-      <c r="E212" s="67">
-        <v>1</v>
-      </c>
-      <c r="F212" s="65">
+      <c r="D212" s="51">
+        <v>1</v>
+      </c>
+      <c r="E212" s="53">
+        <v>1</v>
+      </c>
+      <c r="F212" s="51">
         <v>1</v>
       </c>
       <c r="G212" s="6">
@@ -13550,11 +13563,11 @@
       </c>
     </row>
     <row r="213" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B213" s="64"/>
-      <c r="C213" s="66"/>
-      <c r="D213" s="66"/>
-      <c r="E213" s="68"/>
-      <c r="F213" s="66"/>
+      <c r="B213" s="50"/>
+      <c r="C213" s="52"/>
+      <c r="D213" s="52"/>
+      <c r="E213" s="54"/>
+      <c r="F213" s="52"/>
       <c r="G213" s="40">
         <v>40</v>
       </c>
@@ -13602,19 +13615,19 @@
       </c>
     </row>
     <row r="214" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B214" s="63" t="s">
+      <c r="B214" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="C214" s="65" t="s">
+      <c r="C214" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="D214" s="65">
+      <c r="D214" s="51">
         <v>11</v>
       </c>
-      <c r="E214" s="67">
+      <c r="E214" s="53">
         <v>11</v>
       </c>
-      <c r="F214" s="65">
+      <c r="F214" s="51">
         <v>1</v>
       </c>
       <c r="G214" s="6">
@@ -13664,11 +13677,11 @@
       </c>
     </row>
     <row r="215" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B215" s="64"/>
-      <c r="C215" s="66"/>
-      <c r="D215" s="66"/>
-      <c r="E215" s="68"/>
-      <c r="F215" s="66"/>
+      <c r="B215" s="50"/>
+      <c r="C215" s="52"/>
+      <c r="D215" s="52"/>
+      <c r="E215" s="54"/>
+      <c r="F215" s="52"/>
       <c r="G215" s="40">
         <v>40</v>
       </c>
@@ -13717,26 +13730,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
     <mergeCell ref="F190:F191"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A191:A192"/>
@@ -13744,6 +13737,26 @@
     <mergeCell ref="C190:C193"/>
     <mergeCell ref="D190:D193"/>
     <mergeCell ref="E190:E191"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F214:F215"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
